--- a/data/values_2022.xlsx
+++ b/data/values_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31763A5-97CC-4648-BAAD-4A33EDE4A0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74A9E0F-E951-493D-9315-1758036D0051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic assumptions" sheetId="9" r:id="rId1"/>
@@ -7162,6 +7162,57 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7201,57 +7252,6 @@
     <xf numFmtId="0" fontId="31" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7267,10 +7267,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7285,61 +7342,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7352,12 +7358,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7378,19 +7378,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="57" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="57" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="57" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="43" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="57" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8119,7 +8119,7 @@
   <dimension ref="A2:AQ105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -8960,8 +8960,12 @@
       <c r="G13" s="315">
         <v>2020</v>
       </c>
-      <c r="H13"/>
-      <c r="I13"/>
+      <c r="H13">
+        <v>1.1422000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.88970000000000005</v>
+      </c>
       <c r="K13"/>
       <c r="L13" s="234">
         <v>2002</v>
@@ -9050,8 +9054,12 @@
       <c r="G14" s="315">
         <v>2021</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
+      <c r="H14">
+        <v>1.1827000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.85960000000000003</v>
+      </c>
       <c r="K14"/>
       <c r="L14" s="237">
         <v>2003</v>
@@ -9140,8 +9148,12 @@
       <c r="G15" s="315">
         <v>2022</v>
       </c>
-      <c r="H15"/>
-      <c r="I15"/>
+      <c r="H15">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.85275999999999996</v>
+      </c>
       <c r="K15"/>
       <c r="L15" s="234">
         <v>2004</v>
@@ -16892,16 +16904,16 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="678" t="s">
+      <c r="A6" s="677" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="680" t="s">
+      <c r="B6" s="679" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="678" t="s">
+      <c r="C6" s="677" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="678" t="s">
+      <c r="D6" s="677" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -16912,16 +16924,16 @@
       </c>
       <c r="G6" s="43"/>
       <c r="H6" s="43"/>
-      <c r="I6" s="677" t="s">
+      <c r="I6" s="681" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="677" t="s">
+      <c r="J6" s="681" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="677" t="s">
+      <c r="K6" s="681" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="677" t="s">
+      <c r="L6" s="681" t="s">
         <v>141</v>
       </c>
       <c r="M6" s="47" t="s">
@@ -16931,16 +16943,16 @@
         <v>138</v>
       </c>
       <c r="Q6" s="43"/>
-      <c r="R6" s="677" t="s">
+      <c r="R6" s="681" t="s">
         <v>133</v>
       </c>
-      <c r="S6" s="677" t="s">
+      <c r="S6" s="681" t="s">
         <v>139</v>
       </c>
-      <c r="T6" s="677" t="s">
+      <c r="T6" s="681" t="s">
         <v>140</v>
       </c>
-      <c r="U6" s="677" t="s">
+      <c r="U6" s="681" t="s">
         <v>141</v>
       </c>
       <c r="V6" s="47" t="s">
@@ -16950,16 +16962,16 @@
         <v>138</v>
       </c>
       <c r="Z6" s="43"/>
-      <c r="AA6" s="677" t="s">
+      <c r="AA6" s="681" t="s">
         <v>133</v>
       </c>
-      <c r="AB6" s="677" t="s">
+      <c r="AB6" s="681" t="s">
         <v>139</v>
       </c>
-      <c r="AC6" s="677" t="s">
+      <c r="AC6" s="681" t="s">
         <v>140</v>
       </c>
-      <c r="AD6" s="677" t="s">
+      <c r="AD6" s="681" t="s">
         <v>141</v>
       </c>
       <c r="AE6" s="262" t="s">
@@ -16970,10 +16982,10 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="679"/>
-      <c r="B7" s="681"/>
-      <c r="C7" s="679"/>
-      <c r="D7" s="679"/>
+      <c r="A7" s="678"/>
+      <c r="B7" s="680"/>
+      <c r="C7" s="678"/>
+      <c r="D7" s="678"/>
       <c r="E7" s="48" t="s">
         <v>143</v>
       </c>
@@ -16982,10 +16994,10 @@
       </c>
       <c r="G7" s="43"/>
       <c r="H7" s="43"/>
-      <c r="I7" s="677"/>
-      <c r="J7" s="677"/>
-      <c r="K7" s="677"/>
-      <c r="L7" s="677"/>
+      <c r="I7" s="681"/>
+      <c r="J7" s="681"/>
+      <c r="K7" s="681"/>
+      <c r="L7" s="681"/>
       <c r="M7" s="47" t="s">
         <v>144</v>
       </c>
@@ -16993,10 +17005,10 @@
         <v>145</v>
       </c>
       <c r="Q7" s="43"/>
-      <c r="R7" s="677"/>
-      <c r="S7" s="677"/>
-      <c r="T7" s="677"/>
-      <c r="U7" s="677"/>
+      <c r="R7" s="681"/>
+      <c r="S7" s="681"/>
+      <c r="T7" s="681"/>
+      <c r="U7" s="681"/>
       <c r="V7" s="47" t="s">
         <v>144</v>
       </c>
@@ -17004,10 +17016,10 @@
         <v>145</v>
       </c>
       <c r="Z7" s="43"/>
-      <c r="AA7" s="677"/>
-      <c r="AB7" s="677"/>
-      <c r="AC7" s="677"/>
-      <c r="AD7" s="677"/>
+      <c r="AA7" s="681"/>
+      <c r="AB7" s="681"/>
+      <c r="AC7" s="681"/>
+      <c r="AD7" s="681"/>
       <c r="AE7" s="262" t="s">
         <v>687</v>
       </c>
@@ -18050,22 +18062,22 @@
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
     <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
@@ -18080,8 +18092,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="7202" r:id="rId7" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId8">
+        <control shapeId="7199" r:id="rId7" name="Control 31">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7199" r:id="rId7" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7200" r:id="rId9" name="Control 32">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7200" r:id="rId9" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7201" r:id="rId11" name="Control 33">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7201" r:id="rId11" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7202" r:id="rId13" name="Control 34">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>18</xdr:col>
@@ -18100,82 +18187,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="7202" r:id="rId7" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7201" r:id="rId9" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7201" r:id="rId9" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7200" r:id="rId11" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7200" r:id="rId11" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7199" r:id="rId13" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7199" r:id="rId13" name="Control 31"/>
+        <control shapeId="7202" r:id="rId13" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -18886,29 +18898,14 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:H52"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="C42:E42"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="J29:J31"/>
@@ -18918,14 +18915,29 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="G30:H31"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:H6"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:H52"/>
+    <mergeCell ref="C52:E52"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -19333,10 +19345,10 @@
       <c r="T6" s="295"/>
       <c r="U6" s="295"/>
       <c r="V6" s="295"/>
-      <c r="AF6" s="632" t="s">
+      <c r="AF6" s="607" t="s">
         <v>762</v>
       </c>
-      <c r="AG6" s="632"/>
+      <c r="AG6" s="607"/>
     </row>
     <row r="7" spans="1:36" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="295" t="s">
@@ -19346,40 +19358,40 @@
         <v>762</v>
       </c>
       <c r="G7" s="295"/>
-      <c r="J7" s="620" t="s">
+      <c r="J7" s="612" t="s">
         <v>699</v>
       </c>
-      <c r="K7" s="623" t="s">
+      <c r="K7" s="615" t="s">
         <v>720</v>
       </c>
-      <c r="L7" s="624"/>
-      <c r="M7" s="624"/>
-      <c r="N7" s="624"/>
-      <c r="O7" s="624"/>
-      <c r="P7" s="624"/>
-      <c r="Q7" s="624"/>
-      <c r="R7" s="624"/>
-      <c r="S7" s="624"/>
-      <c r="T7" s="624"/>
-      <c r="U7" s="624"/>
-      <c r="V7" s="625"/>
-      <c r="X7" s="633" t="s">
+      <c r="L7" s="616"/>
+      <c r="M7" s="616"/>
+      <c r="N7" s="616"/>
+      <c r="O7" s="616"/>
+      <c r="P7" s="616"/>
+      <c r="Q7" s="616"/>
+      <c r="R7" s="616"/>
+      <c r="S7" s="616"/>
+      <c r="T7" s="616"/>
+      <c r="U7" s="616"/>
+      <c r="V7" s="617"/>
+      <c r="X7" s="608" t="s">
         <v>699</v>
       </c>
-      <c r="Y7" s="634" t="s">
+      <c r="Y7" s="609" t="s">
         <v>720</v>
       </c>
-      <c r="Z7" s="634"/>
-      <c r="AA7" s="634"/>
-      <c r="AB7" s="634"/>
-      <c r="AC7" s="634"/>
-      <c r="AD7" s="634"/>
-      <c r="AE7" s="634"/>
-      <c r="AF7" s="634"/>
-      <c r="AG7" s="634"/>
-      <c r="AH7" s="634"/>
-      <c r="AI7" s="634"/>
-      <c r="AJ7" s="634"/>
+      <c r="Z7" s="609"/>
+      <c r="AA7" s="609"/>
+      <c r="AB7" s="609"/>
+      <c r="AC7" s="609"/>
+      <c r="AD7" s="609"/>
+      <c r="AE7" s="609"/>
+      <c r="AF7" s="609"/>
+      <c r="AG7" s="609"/>
+      <c r="AH7" s="609"/>
+      <c r="AI7" s="609"/>
+      <c r="AJ7" s="609"/>
     </row>
     <row r="8" spans="1:36" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="300"/>
@@ -19396,57 +19408,57 @@
       <c r="G8" s="595" t="s">
         <v>724</v>
       </c>
-      <c r="J8" s="621"/>
-      <c r="K8" s="623" t="s">
+      <c r="J8" s="613"/>
+      <c r="K8" s="615" t="s">
         <v>701</v>
       </c>
-      <c r="L8" s="624"/>
-      <c r="M8" s="625"/>
-      <c r="N8" s="623" t="s">
+      <c r="L8" s="616"/>
+      <c r="M8" s="617"/>
+      <c r="N8" s="615" t="s">
         <v>702</v>
       </c>
-      <c r="O8" s="624"/>
-      <c r="P8" s="625"/>
-      <c r="Q8" s="623" t="s">
+      <c r="O8" s="616"/>
+      <c r="P8" s="617"/>
+      <c r="Q8" s="615" t="s">
         <v>721</v>
       </c>
-      <c r="R8" s="624"/>
-      <c r="S8" s="625"/>
-      <c r="T8" s="623" t="s">
+      <c r="R8" s="616"/>
+      <c r="S8" s="617"/>
+      <c r="T8" s="615" t="s">
         <v>703</v>
       </c>
-      <c r="U8" s="624"/>
-      <c r="V8" s="625"/>
-      <c r="X8" s="633"/>
-      <c r="Y8" s="634" t="s">
+      <c r="U8" s="616"/>
+      <c r="V8" s="617"/>
+      <c r="X8" s="608"/>
+      <c r="Y8" s="609" t="s">
         <v>701</v>
       </c>
-      <c r="Z8" s="634"/>
-      <c r="AA8" s="634"/>
-      <c r="AB8" s="634" t="s">
+      <c r="Z8" s="609"/>
+      <c r="AA8" s="609"/>
+      <c r="AB8" s="609" t="s">
         <v>702</v>
       </c>
-      <c r="AC8" s="634"/>
-      <c r="AD8" s="634"/>
-      <c r="AE8" s="634" t="s">
+      <c r="AC8" s="609"/>
+      <c r="AD8" s="609"/>
+      <c r="AE8" s="609" t="s">
         <v>721</v>
       </c>
-      <c r="AF8" s="634"/>
-      <c r="AG8" s="634"/>
-      <c r="AH8" s="634" t="s">
+      <c r="AF8" s="609"/>
+      <c r="AG8" s="609"/>
+      <c r="AH8" s="609" t="s">
         <v>703</v>
       </c>
-      <c r="AI8" s="634"/>
-      <c r="AJ8" s="634"/>
+      <c r="AI8" s="609"/>
+      <c r="AJ8" s="609"/>
     </row>
     <row r="9" spans="1:36" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="301"/>
       <c r="B9" s="301"/>
-      <c r="C9" s="629"/>
-      <c r="D9" s="629"/>
-      <c r="F9" s="629"/>
-      <c r="G9" s="629"/>
-      <c r="J9" s="622"/>
+      <c r="C9" s="621"/>
+      <c r="D9" s="621"/>
+      <c r="F9" s="621"/>
+      <c r="G9" s="621"/>
+      <c r="J9" s="614"/>
       <c r="K9" s="334" t="s">
         <v>763</v>
       </c>
@@ -19483,7 +19495,7 @@
       <c r="V9" s="335" t="s">
         <v>765</v>
       </c>
-      <c r="X9" s="633"/>
+      <c r="X9" s="608"/>
       <c r="Y9" s="334" t="s">
         <v>763</v>
       </c>
@@ -19522,7 +19534,7 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="618" t="s">
+      <c r="A10" s="610" t="s">
         <v>693</v>
       </c>
       <c r="B10" s="284" t="s">
@@ -19635,7 +19647,7 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="619"/>
+      <c r="A11" s="611"/>
       <c r="B11" s="285" t="s">
         <v>722</v>
       </c>
@@ -19746,23 +19758,23 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="618" t="s">
+      <c r="A12" s="610" t="s">
         <v>696</v>
       </c>
       <c r="B12" s="263" t="s">
         <v>721</v>
       </c>
-      <c r="C12" s="627">
+      <c r="C12" s="619">
         <v>179</v>
       </c>
-      <c r="D12" s="627">
+      <c r="D12" s="619">
         <v>75</v>
       </c>
-      <c r="F12" s="630">
+      <c r="F12" s="605">
         <f t="shared" si="0"/>
         <v>188.23122194513715</v>
       </c>
-      <c r="G12" s="630">
+      <c r="G12" s="605">
         <f t="shared" si="0"/>
         <v>78.867830423940148</v>
       </c>
@@ -19859,14 +19871,14 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="626"/>
+      <c r="A13" s="618"/>
       <c r="B13" s="284" t="s">
         <v>723</v>
       </c>
-      <c r="C13" s="628"/>
-      <c r="D13" s="628"/>
-      <c r="F13" s="631"/>
-      <c r="G13" s="631">
+      <c r="C13" s="620"/>
+      <c r="D13" s="620"/>
+      <c r="F13" s="606"/>
+      <c r="G13" s="606">
         <f>D13*factor16</f>
         <v>0</v>
       </c>
@@ -19963,7 +19975,7 @@
       </c>
     </row>
     <row r="14" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="619"/>
+      <c r="A14" s="611"/>
       <c r="B14" s="285" t="s">
         <v>698</v>
       </c>
@@ -20453,14 +20465,14 @@
     </row>
     <row r="19" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79"/>
-      <c r="B19" s="605" t="s">
+      <c r="B19" s="622" t="s">
         <v>692</v>
       </c>
-      <c r="C19" s="606"/>
-      <c r="F19" s="605" t="s">
+      <c r="C19" s="623"/>
+      <c r="F19" s="622" t="s">
         <v>692</v>
       </c>
-      <c r="G19" s="606"/>
+      <c r="G19" s="623"/>
       <c r="J19" s="339" t="s">
         <v>707</v>
       </c>
@@ -20554,7 +20566,7 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="618" t="s">
+      <c r="A20" s="610" t="s">
         <v>693</v>
       </c>
       <c r="B20" s="284" t="s">
@@ -20661,7 +20673,7 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="619"/>
+      <c r="A21" s="611"/>
       <c r="B21" s="285" t="s">
         <v>695</v>
       </c>
@@ -21062,31 +21074,31 @@
       <c r="J28" s="220" t="s">
         <v>680</v>
       </c>
-      <c r="X28" s="612" t="s">
+      <c r="X28" s="629" t="s">
         <v>762</v>
       </c>
-      <c r="Y28" s="612"/>
+      <c r="Y28" s="629"/>
     </row>
     <row r="29" spans="1:36" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="607" t="s">
+      <c r="J29" s="624" t="s">
         <v>699</v>
       </c>
-      <c r="K29" s="609" t="s">
+      <c r="K29" s="626" t="s">
         <v>766</v>
       </c>
-      <c r="L29" s="610"/>
-      <c r="M29" s="611"/>
-      <c r="X29" s="613" t="s">
+      <c r="L29" s="627"/>
+      <c r="M29" s="628"/>
+      <c r="X29" s="630" t="s">
         <v>699</v>
       </c>
-      <c r="Y29" s="615" t="s">
+      <c r="Y29" s="632" t="s">
         <v>700</v>
       </c>
-      <c r="Z29" s="616"/>
-      <c r="AA29" s="617"/>
+      <c r="Z29" s="633"/>
+      <c r="AA29" s="634"/>
     </row>
     <row r="30" spans="1:36" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="608"/>
+      <c r="J30" s="625"/>
       <c r="K30" s="349" t="s">
         <v>701</v>
       </c>
@@ -21096,7 +21108,7 @@
       <c r="M30" s="351" t="s">
         <v>767</v>
       </c>
-      <c r="X30" s="614"/>
+      <c r="X30" s="631"/>
       <c r="Y30" s="288" t="s">
         <v>701</v>
       </c>
@@ -21545,14 +21557,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y7:AJ7"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:AA29"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K8:M8"/>
@@ -21569,13 +21580,14 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="X7:X9"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y7:AJ7"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22050,10 +22062,10 @@
       <c r="A37" s="79" t="s">
         <v>681</v>
       </c>
-      <c r="B37" s="605" t="s">
+      <c r="B37" s="622" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="606"/>
+      <c r="C37" s="623"/>
       <c r="D37" s="512"/>
       <c r="E37" s="543"/>
       <c r="F37" s="635" t="s">
@@ -23419,22 +23431,22 @@
       <c r="B17" s="459" t="s">
         <v>813</v>
       </c>
-      <c r="C17" s="656" t="s">
+      <c r="C17" s="640" t="s">
         <v>814</v>
       </c>
-      <c r="D17" s="657"/>
-      <c r="E17" s="657"/>
-      <c r="F17" s="658"/>
+      <c r="D17" s="641"/>
+      <c r="E17" s="641"/>
+      <c r="F17" s="642"/>
       <c r="H17" s="458"/>
       <c r="I17" s="459" t="s">
         <v>813</v>
       </c>
-      <c r="J17" s="656" t="s">
+      <c r="J17" s="640" t="s">
         <v>814</v>
       </c>
-      <c r="K17" s="657"/>
-      <c r="L17" s="657"/>
-      <c r="M17" s="658"/>
+      <c r="K17" s="641"/>
+      <c r="L17" s="641"/>
+      <c r="M17" s="642"/>
     </row>
     <row r="18" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="460"/>
@@ -23474,16 +23486,16 @@
       <c r="A19" s="464" t="s">
         <v>551</v>
       </c>
-      <c r="B19" s="659">
+      <c r="B19" s="647">
         <v>0.84</v>
       </c>
-      <c r="C19" s="659">
+      <c r="C19" s="647">
         <v>257</v>
       </c>
-      <c r="D19" s="659">
+      <c r="D19" s="647">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E19" s="659">
+      <c r="E19" s="647">
         <v>9.0399999999999991</v>
       </c>
       <c r="F19" s="465">
@@ -23492,19 +23504,19 @@
       <c r="H19" s="464" t="s">
         <v>551</v>
       </c>
-      <c r="I19" s="661">
+      <c r="I19" s="643">
         <f>B19*factor16</f>
         <v>0.8833197007481296</v>
       </c>
-      <c r="J19" s="663">
+      <c r="J19" s="645">
         <f>C19*factor16</f>
         <v>270.25376558603489</v>
       </c>
-      <c r="K19" s="661">
+      <c r="K19" s="643">
         <f>D19*factor16</f>
         <v>2.1557206982543637</v>
       </c>
-      <c r="L19" s="661">
+      <c r="L19" s="643">
         <f>E19*factor16</f>
         <v>9.5062024937655849</v>
       </c>
@@ -23517,20 +23529,20 @@
       <c r="A20" s="466" t="s">
         <v>552</v>
       </c>
-      <c r="B20" s="659"/>
-      <c r="C20" s="659"/>
-      <c r="D20" s="659"/>
-      <c r="E20" s="659"/>
+      <c r="B20" s="647"/>
+      <c r="C20" s="647"/>
+      <c r="D20" s="647"/>
+      <c r="E20" s="647"/>
       <c r="F20" s="467">
         <v>0.11</v>
       </c>
       <c r="H20" s="466" t="s">
         <v>552</v>
       </c>
-      <c r="I20" s="661"/>
-      <c r="J20" s="663"/>
-      <c r="K20" s="661"/>
-      <c r="L20" s="661"/>
+      <c r="I20" s="643"/>
+      <c r="J20" s="645"/>
+      <c r="K20" s="643"/>
+      <c r="L20" s="643"/>
       <c r="M20" s="470">
         <f>F20*factor16</f>
         <v>0.11567281795511222</v>
@@ -23540,20 +23552,20 @@
       <c r="A21" s="468" t="s">
         <v>820</v>
       </c>
-      <c r="B21" s="660"/>
-      <c r="C21" s="660"/>
-      <c r="D21" s="660"/>
-      <c r="E21" s="660"/>
+      <c r="B21" s="648"/>
+      <c r="C21" s="648"/>
+      <c r="D21" s="648"/>
+      <c r="E21" s="648"/>
       <c r="F21" s="469">
         <v>0.01</v>
       </c>
       <c r="H21" s="468" t="s">
         <v>820</v>
       </c>
-      <c r="I21" s="662"/>
-      <c r="J21" s="664"/>
-      <c r="K21" s="662"/>
-      <c r="L21" s="662"/>
+      <c r="I21" s="644"/>
+      <c r="J21" s="646"/>
+      <c r="K21" s="644"/>
+      <c r="L21" s="644"/>
       <c r="M21" s="470">
         <f>F21*factor16</f>
         <v>1.0515710723192019E-2</v>
@@ -23583,13 +23595,13 @@
       <c r="T27" s="385"/>
     </row>
     <row r="28" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="644" t="s">
+      <c r="A28" s="663" t="s">
         <v>691</v>
       </c>
-      <c r="B28" s="645"/>
-      <c r="C28" s="645"/>
-      <c r="D28" s="645"/>
-      <c r="E28" s="645"/>
+      <c r="B28" s="664"/>
+      <c r="C28" s="664"/>
+      <c r="D28" s="664"/>
+      <c r="E28" s="664"/>
       <c r="S28" s="384"/>
       <c r="T28" s="385"/>
     </row>
@@ -23607,60 +23619,60 @@
       <c r="B30" s="478"/>
       <c r="C30" s="478"/>
       <c r="D30" s="478"/>
-      <c r="L30" s="642" t="s">
+      <c r="L30" s="661" t="s">
         <v>762</v>
       </c>
-      <c r="M30" s="643"/>
+      <c r="M30" s="662"/>
       <c r="S30" s="384"/>
       <c r="T30" s="385"/>
     </row>
     <row r="31" spans="1:21" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="646" t="s">
+      <c r="A31" s="654" t="s">
         <v>690</v>
       </c>
-      <c r="B31" s="647"/>
-      <c r="C31" s="646" t="s">
+      <c r="B31" s="655"/>
+      <c r="C31" s="654" t="s">
         <v>839</v>
       </c>
-      <c r="D31" s="647" t="s">
+      <c r="D31" s="655" t="s">
         <v>866</v>
       </c>
-      <c r="E31" s="647" t="s">
+      <c r="E31" s="655" t="s">
         <v>841</v>
       </c>
-      <c r="F31" s="655" t="s">
+      <c r="F31" s="658" t="s">
         <v>840</v>
       </c>
-      <c r="G31" s="655" t="s">
+      <c r="G31" s="658" t="s">
         <v>867</v>
       </c>
-      <c r="H31" s="655" t="s">
+      <c r="H31" s="658" t="s">
         <v>842</v>
       </c>
-      <c r="J31" s="646" t="s">
+      <c r="J31" s="654" t="s">
         <v>690</v>
       </c>
-      <c r="K31" s="647"/>
-      <c r="L31" s="640" t="s">
+      <c r="K31" s="655"/>
+      <c r="L31" s="660" t="s">
         <v>769</v>
       </c>
-      <c r="M31" s="640" t="s">
+      <c r="M31" s="660" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="40.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="648"/>
-      <c r="B32" s="649"/>
-      <c r="C32" s="648"/>
-      <c r="D32" s="649"/>
-      <c r="E32" s="649"/>
-      <c r="F32" s="641"/>
-      <c r="G32" s="641"/>
-      <c r="H32" s="641"/>
-      <c r="J32" s="648"/>
-      <c r="K32" s="649"/>
-      <c r="L32" s="641"/>
-      <c r="M32" s="641"/>
+      <c r="A32" s="656"/>
+      <c r="B32" s="657"/>
+      <c r="C32" s="656"/>
+      <c r="D32" s="657"/>
+      <c r="E32" s="657"/>
+      <c r="F32" s="659"/>
+      <c r="G32" s="659"/>
+      <c r="H32" s="659"/>
+      <c r="J32" s="656"/>
+      <c r="K32" s="657"/>
+      <c r="L32" s="659"/>
+      <c r="M32" s="659"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="493">
@@ -24895,16 +24907,16 @@
       <c r="X76" s="355"/>
     </row>
     <row r="77" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="650" t="s">
+      <c r="A77" s="649" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="652" t="s">
+      <c r="B77" s="651" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="653"/>
-      <c r="D77" s="653"/>
-      <c r="E77" s="653"/>
-      <c r="F77" s="654"/>
+      <c r="C77" s="652"/>
+      <c r="D77" s="652"/>
+      <c r="E77" s="652"/>
+      <c r="F77" s="653"/>
       <c r="I77" s="355"/>
       <c r="J77" s="355"/>
       <c r="K77" s="355"/>
@@ -24923,7 +24935,7 @@
       <c r="X77" s="355"/>
     </row>
     <row r="78" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="651"/>
+      <c r="A78" s="650"/>
       <c r="B78" s="357" t="s">
         <v>180</v>
       </c>
@@ -25187,7 +25199,7 @@
       <c r="W82" s="355"/>
       <c r="X82" s="355"/>
     </row>
-    <row r="83" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="360" t="s">
         <v>185</v>
       </c>
@@ -25440,16 +25452,16 @@
       <c r="X89" s="355"/>
     </row>
     <row r="90" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="650" t="s">
+      <c r="A90" s="649" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="652" t="s">
+      <c r="B90" s="651" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="653"/>
-      <c r="D90" s="653"/>
-      <c r="E90" s="653"/>
-      <c r="F90" s="654"/>
+      <c r="C90" s="652"/>
+      <c r="D90" s="652"/>
+      <c r="E90" s="652"/>
+      <c r="F90" s="653"/>
       <c r="I90" s="355"/>
       <c r="J90" s="355"/>
       <c r="K90" s="355"/>
@@ -25468,7 +25480,7 @@
       <c r="X90" s="355"/>
     </row>
     <row r="91" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="651"/>
+      <c r="A91" s="650"/>
       <c r="B91" s="357" t="s">
         <v>180</v>
       </c>
@@ -25978,16 +25990,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="B77:F77"/>
     <mergeCell ref="A90:A91"/>
@@ -25998,12 +26006,16 @@
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C75" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -26097,16 +26109,16 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="629"/>
-      <c r="B9" s="629"/>
-      <c r="C9" s="629"/>
-      <c r="D9" s="629"/>
-      <c r="E9" s="629"/>
-      <c r="J9" s="629"/>
-      <c r="K9" s="629"/>
-      <c r="L9" s="629"/>
-      <c r="M9" s="629"/>
-      <c r="N9" s="629"/>
+      <c r="A9" s="621"/>
+      <c r="B9" s="621"/>
+      <c r="C9" s="621"/>
+      <c r="D9" s="621"/>
+      <c r="E9" s="621"/>
+      <c r="J9" s="621"/>
+      <c r="K9" s="621"/>
+      <c r="L9" s="621"/>
+      <c r="M9" s="621"/>
+      <c r="N9" s="621"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="404" t="s">
@@ -26214,10 +26226,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="669" t="s">
+      <c r="A13" s="665" t="s">
         <v>773</v>
       </c>
-      <c r="B13" s="670"/>
+      <c r="B13" s="666"/>
       <c r="C13" s="293">
         <v>1010</v>
       </c>
@@ -26227,10 +26239,10 @@
       <c r="E13" s="406">
         <v>246</v>
       </c>
-      <c r="J13" s="669" t="s">
+      <c r="J13" s="665" t="s">
         <v>773</v>
       </c>
-      <c r="K13" s="670"/>
+      <c r="K13" s="666"/>
       <c r="L13" s="293">
         <f t="shared" si="0"/>
         <v>1062.086783042394</v>
@@ -26915,56 +26927,56 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="40.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="667" t="s">
+      <c r="C46" s="669" t="s">
         <v>822</v>
       </c>
-      <c r="D46" s="667" t="s">
+      <c r="D46" s="669" t="s">
         <v>823</v>
       </c>
-      <c r="E46" s="665" t="s">
+      <c r="E46" s="667" t="s">
         <v>824</v>
       </c>
-      <c r="F46" s="666"/>
-      <c r="J46" s="667" t="s">
+      <c r="F46" s="668"/>
+      <c r="J46" s="669" t="s">
         <v>822</v>
       </c>
-      <c r="K46" s="667" t="s">
+      <c r="K46" s="669" t="s">
         <v>823</v>
       </c>
-      <c r="L46" s="665" t="s">
+      <c r="L46" s="667" t="s">
         <v>824</v>
       </c>
-      <c r="M46" s="666"/>
-      <c r="O46" s="667" t="s">
+      <c r="M46" s="668"/>
+      <c r="O46" s="669" t="s">
         <v>822</v>
       </c>
-      <c r="P46" s="667" t="s">
+      <c r="P46" s="669" t="s">
         <v>823</v>
       </c>
-      <c r="Q46" s="665" t="s">
+      <c r="Q46" s="667" t="s">
         <v>824</v>
       </c>
-      <c r="R46" s="666"/>
+      <c r="R46" s="668"/>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="668"/>
-      <c r="D47" s="668"/>
+      <c r="C47" s="670"/>
+      <c r="D47" s="670"/>
       <c r="E47" s="471" t="s">
         <v>825</v>
       </c>
       <c r="F47" s="472" t="s">
         <v>826</v>
       </c>
-      <c r="J47" s="668"/>
-      <c r="K47" s="668"/>
+      <c r="J47" s="670"/>
+      <c r="K47" s="670"/>
       <c r="L47" s="471" t="s">
         <v>825</v>
       </c>
       <c r="M47" s="472" t="s">
         <v>826</v>
       </c>
-      <c r="O47" s="668"/>
-      <c r="P47" s="668"/>
+      <c r="O47" s="670"/>
+      <c r="P47" s="670"/>
       <c r="Q47" s="471" t="s">
         <v>825</v>
       </c>
@@ -27075,38 +27087,38 @@
       </c>
     </row>
     <row r="53" spans="3:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="667" t="s">
+      <c r="C53" s="669" t="s">
         <v>822</v>
       </c>
-      <c r="D53" s="667" t="s">
+      <c r="D53" s="669" t="s">
         <v>823</v>
       </c>
-      <c r="E53" s="665" t="s">
+      <c r="E53" s="667" t="s">
         <v>824</v>
       </c>
-      <c r="F53" s="666"/>
-      <c r="J53" s="667" t="s">
+      <c r="F53" s="668"/>
+      <c r="J53" s="669" t="s">
         <v>822</v>
       </c>
-      <c r="K53" s="667" t="s">
+      <c r="K53" s="669" t="s">
         <v>823</v>
       </c>
-      <c r="L53" s="665" t="s">
+      <c r="L53" s="667" t="s">
         <v>824</v>
       </c>
-      <c r="M53" s="666"/>
+      <c r="M53" s="668"/>
     </row>
     <row r="54" spans="3:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="668"/>
-      <c r="D54" s="668"/>
+      <c r="C54" s="670"/>
+      <c r="D54" s="670"/>
       <c r="E54" s="471" t="s">
         <v>825</v>
       </c>
       <c r="F54" s="472" t="s">
         <v>826</v>
       </c>
-      <c r="J54" s="668"/>
-      <c r="K54" s="668"/>
+      <c r="J54" s="670"/>
+      <c r="K54" s="670"/>
       <c r="L54" s="471" t="s">
         <v>825</v>
       </c>
@@ -27180,18 +27192,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="O46:O47"/>
     <mergeCell ref="P46:P47"/>
@@ -27207,6 +27207,18 @@
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="J46:J47"/>
     <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://ec.europa.eu/transport/sites/transport/files/studies/internalisation-handbook-isbn-978-92-79-96917-1.pdf" xr:uid="{00000000-0004-0000-0700-000000000000}"/>

--- a/data/values_2022.xlsx
+++ b/data/values_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1D96F6-307B-4E92-9867-476CCDA1D664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9172EA9E-9B52-4A14-BCCC-FFDC7AE341A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basic assumptions" sheetId="9" r:id="rId1"/>
@@ -3727,7 +3727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="145">
+  <borders count="146">
     <border>
       <left/>
       <right/>
@@ -5451,6 +5451,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5472,7 +5483,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="641">
+  <cellXfs count="643">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6976,6 +6987,18 @@
     <xf numFmtId="175" fontId="35" fillId="0" borderId="33" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="15" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="82" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7045,6 +7068,81 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="50" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7060,81 +7158,6 @@
     <xf numFmtId="0" fontId="31" fillId="12" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7150,67 +7173,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="50" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="50" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="114" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7225,22 +7191,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="142" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="133" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="136" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="50" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="133" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="13" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7261,6 +7284,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="57" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7273,21 +7299,10 @@
     <xf numFmtId="0" fontId="33" fillId="12" borderId="43" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="41" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="145" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -7492,15 +7507,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>979170</xdr:colOff>
+          <xdr:colOff>981075</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>17145</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
           <xdr:colOff>819150</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>55245</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7542,15 +7557,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>979170</xdr:colOff>
+          <xdr:colOff>981075</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>17145</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
           <xdr:colOff>819150</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>55245</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7592,15 +7607,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>979170</xdr:colOff>
+          <xdr:colOff>981075</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>17145</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
           <xdr:colOff>819150</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>55245</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7642,15 +7657,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>979170</xdr:colOff>
+          <xdr:colOff>981075</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>17145</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
           <xdr:colOff>819150</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>55245</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7980,7 +7995,7 @@
   <dimension ref="A2:AL61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -8089,11 +8104,11 @@
     </row>
     <row r="5" spans="1:38" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="C5" s="540" t="s">
+      <c r="C5" s="544" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="541"/>
-      <c r="E5" s="542"/>
+      <c r="D5" s="545"/>
+      <c r="E5" s="546"/>
       <c r="G5" s="281">
         <v>2012</v>
       </c>
@@ -8107,41 +8122,41 @@
         <v>849</v>
       </c>
       <c r="K5" s="13"/>
-      <c r="L5" s="537" t="s">
+      <c r="L5" s="541" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="538"/>
-      <c r="N5" s="539"/>
-      <c r="P5" s="537" t="s">
+      <c r="M5" s="542"/>
+      <c r="N5" s="543"/>
+      <c r="P5" s="541" t="s">
         <v>91</v>
       </c>
-      <c r="Q5" s="538"/>
-      <c r="R5" s="539"/>
-      <c r="T5" s="537" t="s">
+      <c r="Q5" s="542"/>
+      <c r="R5" s="543"/>
+      <c r="T5" s="541" t="s">
         <v>91</v>
       </c>
-      <c r="U5" s="538"/>
-      <c r="V5" s="539"/>
-      <c r="X5" s="537" t="s">
+      <c r="U5" s="542"/>
+      <c r="V5" s="543"/>
+      <c r="X5" s="541" t="s">
         <v>91</v>
       </c>
-      <c r="Y5" s="538"/>
-      <c r="Z5" s="539"/>
-      <c r="AB5" s="537" t="s">
+      <c r="Y5" s="542"/>
+      <c r="Z5" s="543"/>
+      <c r="AB5" s="541" t="s">
         <v>91</v>
       </c>
-      <c r="AC5" s="538"/>
-      <c r="AD5" s="539"/>
-      <c r="AF5" s="537" t="s">
+      <c r="AC5" s="542"/>
+      <c r="AD5" s="543"/>
+      <c r="AF5" s="541" t="s">
         <v>91</v>
       </c>
-      <c r="AG5" s="538"/>
-      <c r="AH5" s="539"/>
-      <c r="AJ5" s="537" t="s">
+      <c r="AG5" s="542"/>
+      <c r="AH5" s="543"/>
+      <c r="AJ5" s="541" t="s">
         <v>91</v>
       </c>
-      <c r="AK5" s="538"/>
-      <c r="AL5" s="539"/>
+      <c r="AK5" s="542"/>
+      <c r="AL5" s="543"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -10463,37 +10478,48 @@
     </row>
     <row r="34" spans="1:38" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="C34" s="638">
+      <c r="C34" s="538">
         <v>2023</v>
       </c>
-      <c r="D34" s="639">
+      <c r="D34" s="539">
         <v>126.4</v>
       </c>
-      <c r="E34" s="640">
+      <c r="E34" s="540">
         <f t="shared" ref="E34" si="8">(D34-D33)/D33</f>
         <v>6.3973063973064043E-2</v>
       </c>
-      <c r="L34" s="637"/>
-      <c r="M34" s="637"/>
-      <c r="N34" s="637"/>
-      <c r="P34" s="637"/>
-      <c r="Q34" s="637"/>
-      <c r="R34" s="637"/>
-      <c r="T34" s="637"/>
-      <c r="U34" s="637"/>
-      <c r="V34" s="637"/>
-      <c r="X34" s="637"/>
-      <c r="Y34" s="637"/>
-      <c r="Z34" s="637"/>
-      <c r="AB34" s="637"/>
-      <c r="AC34" s="637"/>
-      <c r="AD34" s="637"/>
-      <c r="AF34" s="637"/>
-      <c r="AG34" s="637"/>
-      <c r="AH34" s="637"/>
-      <c r="AJ34" s="637"/>
-      <c r="AK34" s="637"/>
-      <c r="AL34" s="637"/>
+      <c r="L34" s="537"/>
+      <c r="M34" s="537"/>
+      <c r="N34" s="537"/>
+      <c r="P34" s="537"/>
+      <c r="Q34" s="537"/>
+      <c r="R34" s="537"/>
+      <c r="T34" s="537"/>
+      <c r="U34" s="537"/>
+      <c r="V34" s="537"/>
+      <c r="X34" s="537"/>
+      <c r="Y34" s="537"/>
+      <c r="Z34" s="537"/>
+      <c r="AB34" s="537"/>
+      <c r="AC34" s="537"/>
+      <c r="AD34" s="537"/>
+      <c r="AF34" s="537"/>
+      <c r="AG34" s="537"/>
+      <c r="AH34" s="537"/>
+      <c r="AJ34" s="537"/>
+      <c r="AK34" s="537"/>
+      <c r="AL34" s="537"/>
+    </row>
+    <row r="35" spans="1:38" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C35" s="641">
+        <v>2024</v>
+      </c>
+      <c r="D35">
+        <v>129.66999999999999</v>
+      </c>
+      <c r="E35" s="642">
+        <v>2.6032600094951671E-2</v>
+      </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
@@ -12587,20 +12613,20 @@
       <c r="A1" s="86"/>
     </row>
     <row r="2" spans="1:4" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="628" t="s">
+      <c r="A2" s="632" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="628"/>
-      <c r="C2" s="628"/>
-      <c r="D2" s="628"/>
+      <c r="B2" s="632"/>
+      <c r="C2" s="632"/>
+      <c r="D2" s="632"/>
     </row>
     <row r="3" spans="1:4" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="80"/>
       <c r="B3" s="80"/>
-      <c r="C3" s="629" t="s">
+      <c r="C3" s="633" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="629" t="s">
+      <c r="D3" s="633" t="s">
         <v>279</v>
       </c>
     </row>
@@ -12611,8 +12637,8 @@
       <c r="B4" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="629"/>
-      <c r="D4" s="629"/>
+      <c r="C4" s="633"/>
+      <c r="D4" s="633"/>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="82" t="s">
@@ -13560,26 +13586,26 @@
       <c r="AH5" s="109"/>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="C6" s="630" t="s">
+      <c r="C6" s="634" t="s">
         <v>563</v>
       </c>
-      <c r="D6" s="630"/>
-      <c r="E6" s="630"/>
-      <c r="F6" s="631" t="s">
+      <c r="D6" s="634"/>
+      <c r="E6" s="634"/>
+      <c r="F6" s="635" t="s">
         <v>564</v>
       </c>
-      <c r="G6" s="630"/>
-      <c r="H6" s="630"/>
-      <c r="I6" s="630" t="s">
+      <c r="G6" s="634"/>
+      <c r="H6" s="634"/>
+      <c r="I6" s="634" t="s">
         <v>565</v>
       </c>
-      <c r="J6" s="630"/>
-      <c r="K6" s="630"/>
-      <c r="L6" s="630" t="s">
+      <c r="J6" s="634"/>
+      <c r="K6" s="634"/>
+      <c r="L6" s="634" t="s">
         <v>566</v>
       </c>
-      <c r="M6" s="630"/>
-      <c r="N6" s="630"/>
+      <c r="M6" s="634"/>
+      <c r="N6" s="634"/>
       <c r="Q6" s="112"/>
       <c r="R6" s="105" t="s">
         <v>567</v>
@@ -14260,16 +14286,16 @@
       <c r="C18" s="124" t="s">
         <v>580</v>
       </c>
-      <c r="D18" s="631" t="s">
+      <c r="D18" s="635" t="s">
         <v>581</v>
       </c>
-      <c r="E18" s="631"/>
-      <c r="F18" s="631"/>
-      <c r="G18" s="630" t="s">
+      <c r="E18" s="635"/>
+      <c r="F18" s="635"/>
+      <c r="G18" s="634" t="s">
         <v>582</v>
       </c>
-      <c r="H18" s="630"/>
-      <c r="I18" s="630"/>
+      <c r="H18" s="634"/>
+      <c r="I18" s="634"/>
       <c r="P18" s="145"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="105" t="s">
@@ -15972,16 +15998,16 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="632" t="s">
+      <c r="A6" s="637" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="634" t="s">
+      <c r="B6" s="639" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="632" t="s">
+      <c r="C6" s="637" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="632" t="s">
+      <c r="D6" s="637" t="s">
         <v>136</v>
       </c>
       <c r="E6" s="41" t="s">
@@ -16046,10 +16072,10 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="633"/>
-      <c r="B7" s="635"/>
-      <c r="C7" s="633"/>
-      <c r="D7" s="633"/>
+      <c r="A7" s="638"/>
+      <c r="B7" s="640"/>
+      <c r="C7" s="638"/>
+      <c r="D7" s="638"/>
       <c r="E7" s="43" t="s">
         <v>143</v>
       </c>
@@ -17062,22 +17088,22 @@
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
     <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B6" location="_ftn1" display="_ftn1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
@@ -17092,8 +17118,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="7199" r:id="rId7" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId8">
+        <control shapeId="7202" r:id="rId7" name="Control 34">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7202" r:id="rId7" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7201" r:id="rId9" name="Control 33">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7201" r:id="rId9" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7200" r:id="rId11" name="Control 32">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>819150</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7200" r:id="rId11" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7199" r:id="rId13" name="Control 31">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>17</xdr:col>
@@ -17112,82 +17213,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="7199" r:id="rId7" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7200" r:id="rId9" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>29</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7200" r:id="rId9" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7201" r:id="rId11" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId12">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>30</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7201" r:id="rId11" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7202" r:id="rId13" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>17</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>18</xdr:col>
-                <xdr:colOff>819150</xdr:colOff>
-                <xdr:row>32</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7202" r:id="rId13" name="Control 34"/>
+        <control shapeId="7199" r:id="rId13" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -17219,50 +17245,50 @@
     </row>
     <row r="3" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="543" t="s">
+      <c r="B4" s="547" t="s">
         <v>610</v>
       </c>
-      <c r="C4" s="545" t="s">
+      <c r="C4" s="549" t="s">
         <v>611</v>
       </c>
-      <c r="D4" s="546"/>
-      <c r="E4" s="546"/>
-      <c r="F4" s="547"/>
-      <c r="G4" s="548" t="s">
+      <c r="D4" s="550"/>
+      <c r="E4" s="550"/>
+      <c r="F4" s="551"/>
+      <c r="G4" s="552" t="s">
         <v>612</v>
       </c>
-      <c r="H4" s="549"/>
-      <c r="J4" s="550" t="s">
+      <c r="H4" s="553"/>
+      <c r="J4" s="554" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="544"/>
-      <c r="C5" s="552" t="s">
+      <c r="B5" s="548"/>
+      <c r="C5" s="556" t="s">
         <v>613</v>
       </c>
-      <c r="D5" s="553"/>
-      <c r="E5" s="554"/>
-      <c r="F5" s="550" t="s">
+      <c r="D5" s="557"/>
+      <c r="E5" s="558"/>
+      <c r="F5" s="554" t="s">
         <v>615</v>
       </c>
-      <c r="G5" s="552" t="s">
+      <c r="G5" s="556" t="s">
         <v>616</v>
       </c>
-      <c r="H5" s="554"/>
-      <c r="J5" s="551"/>
+      <c r="H5" s="558"/>
+      <c r="J5" s="555"/>
     </row>
     <row r="6" spans="2:10" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="544"/>
-      <c r="C6" s="557" t="s">
+      <c r="B6" s="548"/>
+      <c r="C6" s="561" t="s">
         <v>614</v>
       </c>
-      <c r="D6" s="558"/>
-      <c r="E6" s="559"/>
-      <c r="F6" s="551"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="556"/>
-      <c r="J6" s="551">
+      <c r="D6" s="562"/>
+      <c r="E6" s="563"/>
+      <c r="F6" s="555"/>
+      <c r="G6" s="559"/>
+      <c r="H6" s="560"/>
+      <c r="J6" s="555">
         <v>17600</v>
       </c>
     </row>
@@ -17352,50 +17378,50 @@
     </row>
     <row r="18" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="543" t="s">
+      <c r="B19" s="547" t="s">
         <v>610</v>
       </c>
-      <c r="C19" s="545" t="s">
+      <c r="C19" s="549" t="s">
         <v>611</v>
       </c>
-      <c r="D19" s="546"/>
-      <c r="E19" s="546"/>
-      <c r="F19" s="547"/>
-      <c r="G19" s="548" t="s">
+      <c r="D19" s="550"/>
+      <c r="E19" s="550"/>
+      <c r="F19" s="551"/>
+      <c r="G19" s="552" t="s">
         <v>612</v>
       </c>
-      <c r="H19" s="549"/>
-      <c r="J19" s="550" t="s">
+      <c r="H19" s="553"/>
+      <c r="J19" s="554" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="B20" s="544"/>
-      <c r="C20" s="552" t="s">
+      <c r="B20" s="548"/>
+      <c r="C20" s="556" t="s">
         <v>613</v>
       </c>
-      <c r="D20" s="553"/>
-      <c r="E20" s="554"/>
-      <c r="F20" s="550" t="s">
+      <c r="D20" s="557"/>
+      <c r="E20" s="558"/>
+      <c r="F20" s="554" t="s">
         <v>615</v>
       </c>
-      <c r="G20" s="552" t="s">
+      <c r="G20" s="556" t="s">
         <v>616</v>
       </c>
-      <c r="H20" s="554"/>
-      <c r="J20" s="551"/>
+      <c r="H20" s="558"/>
+      <c r="J20" s="555"/>
     </row>
     <row r="21" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="544"/>
-      <c r="C21" s="557" t="s">
+      <c r="B21" s="548"/>
+      <c r="C21" s="561" t="s">
         <v>614</v>
       </c>
-      <c r="D21" s="558"/>
-      <c r="E21" s="559"/>
-      <c r="F21" s="551"/>
-      <c r="G21" s="555"/>
-      <c r="H21" s="556"/>
-      <c r="J21" s="551">
+      <c r="D21" s="562"/>
+      <c r="E21" s="563"/>
+      <c r="F21" s="555"/>
+      <c r="G21" s="559"/>
+      <c r="H21" s="560"/>
+      <c r="J21" s="555">
         <v>17600</v>
       </c>
     </row>
@@ -17493,50 +17519,50 @@
     </row>
     <row r="28" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="543" t="s">
+      <c r="B29" s="547" t="s">
         <v>610</v>
       </c>
-      <c r="C29" s="545" t="s">
+      <c r="C29" s="549" t="s">
         <v>611</v>
       </c>
-      <c r="D29" s="546"/>
-      <c r="E29" s="546"/>
-      <c r="F29" s="547"/>
-      <c r="G29" s="548" t="s">
+      <c r="D29" s="550"/>
+      <c r="E29" s="550"/>
+      <c r="F29" s="551"/>
+      <c r="G29" s="552" t="s">
         <v>612</v>
       </c>
-      <c r="H29" s="549"/>
-      <c r="J29" s="550" t="s">
+      <c r="H29" s="553"/>
+      <c r="J29" s="554" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="B30" s="544"/>
-      <c r="C30" s="552" t="s">
+      <c r="B30" s="548"/>
+      <c r="C30" s="556" t="s">
         <v>613</v>
       </c>
-      <c r="D30" s="553"/>
-      <c r="E30" s="554"/>
-      <c r="F30" s="550" t="s">
+      <c r="D30" s="557"/>
+      <c r="E30" s="558"/>
+      <c r="F30" s="554" t="s">
         <v>615</v>
       </c>
-      <c r="G30" s="552" t="s">
+      <c r="G30" s="556" t="s">
         <v>616</v>
       </c>
-      <c r="H30" s="554"/>
-      <c r="J30" s="551"/>
+      <c r="H30" s="558"/>
+      <c r="J30" s="555"/>
     </row>
     <row r="31" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="544"/>
-      <c r="C31" s="557" t="s">
+      <c r="B31" s="548"/>
+      <c r="C31" s="561" t="s">
         <v>614</v>
       </c>
-      <c r="D31" s="558"/>
-      <c r="E31" s="559"/>
-      <c r="F31" s="551"/>
-      <c r="G31" s="555"/>
-      <c r="H31" s="556"/>
-      <c r="J31" s="551">
+      <c r="D31" s="562"/>
+      <c r="E31" s="563"/>
+      <c r="F31" s="555"/>
+      <c r="G31" s="559"/>
+      <c r="H31" s="560"/>
+      <c r="J31" s="555">
         <v>17600</v>
       </c>
     </row>
@@ -17621,50 +17647,50 @@
     </row>
     <row r="39" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="543" t="s">
+      <c r="B40" s="547" t="s">
         <v>610</v>
       </c>
-      <c r="C40" s="545" t="s">
+      <c r="C40" s="549" t="s">
         <v>611</v>
       </c>
-      <c r="D40" s="546"/>
-      <c r="E40" s="546"/>
-      <c r="F40" s="547"/>
-      <c r="G40" s="548" t="s">
+      <c r="D40" s="550"/>
+      <c r="E40" s="550"/>
+      <c r="F40" s="551"/>
+      <c r="G40" s="552" t="s">
         <v>612</v>
       </c>
-      <c r="H40" s="549"/>
-      <c r="J40" s="550" t="s">
+      <c r="H40" s="553"/>
+      <c r="J40" s="554" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="41" spans="2:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="B41" s="544"/>
-      <c r="C41" s="552" t="s">
+      <c r="B41" s="548"/>
+      <c r="C41" s="556" t="s">
         <v>613</v>
       </c>
-      <c r="D41" s="553"/>
-      <c r="E41" s="554"/>
-      <c r="F41" s="550" t="s">
+      <c r="D41" s="557"/>
+      <c r="E41" s="558"/>
+      <c r="F41" s="554" t="s">
         <v>615</v>
       </c>
-      <c r="G41" s="552" t="s">
+      <c r="G41" s="556" t="s">
         <v>616</v>
       </c>
-      <c r="H41" s="554"/>
-      <c r="J41" s="551"/>
+      <c r="H41" s="558"/>
+      <c r="J41" s="555"/>
     </row>
     <row r="42" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="544"/>
-      <c r="C42" s="557" t="s">
+      <c r="B42" s="548"/>
+      <c r="C42" s="561" t="s">
         <v>614</v>
       </c>
-      <c r="D42" s="558"/>
-      <c r="E42" s="559"/>
-      <c r="F42" s="551"/>
-      <c r="G42" s="555"/>
-      <c r="H42" s="556"/>
-      <c r="J42" s="551">
+      <c r="D42" s="562"/>
+      <c r="E42" s="563"/>
+      <c r="F42" s="555"/>
+      <c r="G42" s="559"/>
+      <c r="H42" s="560"/>
+      <c r="J42" s="555">
         <v>17600</v>
       </c>
     </row>
@@ -17762,50 +17788,50 @@
     </row>
     <row r="49" spans="2:10" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="543" t="s">
+      <c r="B50" s="547" t="s">
         <v>610</v>
       </c>
-      <c r="C50" s="545" t="s">
+      <c r="C50" s="549" t="s">
         <v>611</v>
       </c>
-      <c r="D50" s="546"/>
-      <c r="E50" s="546"/>
-      <c r="F50" s="547"/>
-      <c r="G50" s="548" t="s">
+      <c r="D50" s="550"/>
+      <c r="E50" s="550"/>
+      <c r="F50" s="551"/>
+      <c r="G50" s="552" t="s">
         <v>612</v>
       </c>
-      <c r="H50" s="549"/>
-      <c r="J50" s="550" t="s">
+      <c r="H50" s="553"/>
+      <c r="J50" s="554" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="12" x14ac:dyDescent="0.2">
-      <c r="B51" s="544"/>
-      <c r="C51" s="552" t="s">
+      <c r="B51" s="548"/>
+      <c r="C51" s="556" t="s">
         <v>613</v>
       </c>
-      <c r="D51" s="553"/>
-      <c r="E51" s="554"/>
-      <c r="F51" s="550" t="s">
+      <c r="D51" s="557"/>
+      <c r="E51" s="558"/>
+      <c r="F51" s="554" t="s">
         <v>615</v>
       </c>
-      <c r="G51" s="552" t="s">
+      <c r="G51" s="556" t="s">
         <v>616</v>
       </c>
-      <c r="H51" s="554"/>
-      <c r="J51" s="551"/>
+      <c r="H51" s="558"/>
+      <c r="J51" s="555"/>
     </row>
     <row r="52" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="544"/>
-      <c r="C52" s="557" t="s">
+      <c r="B52" s="548"/>
+      <c r="C52" s="561" t="s">
         <v>614</v>
       </c>
-      <c r="D52" s="558"/>
-      <c r="E52" s="559"/>
-      <c r="F52" s="551"/>
-      <c r="G52" s="555"/>
-      <c r="H52" s="556"/>
-      <c r="J52" s="551">
+      <c r="D52" s="562"/>
+      <c r="E52" s="563"/>
+      <c r="F52" s="555"/>
+      <c r="G52" s="559"/>
+      <c r="H52" s="560"/>
+      <c r="J52" s="555">
         <v>17600</v>
       </c>
     </row>
@@ -17898,14 +17924,29 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="J50:J52"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:H52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:H6"/>
     <mergeCell ref="J4:J6"/>
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="J29:J31"/>
@@ -17915,29 +17956,14 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="G30:H31"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:H6"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="J50:J52"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:H52"/>
-    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="C42:E42"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -18266,7 +18292,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="287" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:8" s="287" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="287" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B25" s="292" t="s">
         <v>75</v>
       </c>
@@ -18345,10 +18371,10 @@
       <c r="T6" s="264"/>
       <c r="U6" s="264"/>
       <c r="V6" s="264"/>
-      <c r="AF6" s="562" t="s">
+      <c r="AF6" s="591" t="s">
         <v>762</v>
       </c>
-      <c r="AG6" s="562"/>
+      <c r="AG6" s="591"/>
     </row>
     <row r="7" spans="1:36" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="264" t="s">
@@ -18358,107 +18384,107 @@
         <v>762</v>
       </c>
       <c r="G7" s="264"/>
-      <c r="J7" s="567" t="s">
+      <c r="J7" s="579" t="s">
         <v>699</v>
       </c>
-      <c r="K7" s="570" t="s">
+      <c r="K7" s="582" t="s">
         <v>720</v>
       </c>
-      <c r="L7" s="571"/>
-      <c r="M7" s="571"/>
-      <c r="N7" s="571"/>
-      <c r="O7" s="571"/>
-      <c r="P7" s="571"/>
-      <c r="Q7" s="571"/>
-      <c r="R7" s="571"/>
-      <c r="S7" s="571"/>
-      <c r="T7" s="571"/>
-      <c r="U7" s="571"/>
-      <c r="V7" s="572"/>
-      <c r="X7" s="563" t="s">
+      <c r="L7" s="583"/>
+      <c r="M7" s="583"/>
+      <c r="N7" s="583"/>
+      <c r="O7" s="583"/>
+      <c r="P7" s="583"/>
+      <c r="Q7" s="583"/>
+      <c r="R7" s="583"/>
+      <c r="S7" s="583"/>
+      <c r="T7" s="583"/>
+      <c r="U7" s="583"/>
+      <c r="V7" s="584"/>
+      <c r="X7" s="592" t="s">
         <v>699</v>
       </c>
-      <c r="Y7" s="564" t="s">
+      <c r="Y7" s="593" t="s">
         <v>720</v>
       </c>
-      <c r="Z7" s="564"/>
-      <c r="AA7" s="564"/>
-      <c r="AB7" s="564"/>
-      <c r="AC7" s="564"/>
-      <c r="AD7" s="564"/>
-      <c r="AE7" s="564"/>
-      <c r="AF7" s="564"/>
-      <c r="AG7" s="564"/>
-      <c r="AH7" s="564"/>
-      <c r="AI7" s="564"/>
-      <c r="AJ7" s="564"/>
+      <c r="Z7" s="593"/>
+      <c r="AA7" s="593"/>
+      <c r="AB7" s="593"/>
+      <c r="AC7" s="593"/>
+      <c r="AD7" s="593"/>
+      <c r="AE7" s="593"/>
+      <c r="AF7" s="593"/>
+      <c r="AG7" s="593"/>
+      <c r="AH7" s="593"/>
+      <c r="AI7" s="593"/>
+      <c r="AJ7" s="593"/>
     </row>
     <row r="8" spans="1:36" ht="26.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="269"/>
       <c r="B8" s="269"/>
-      <c r="C8" s="550" t="s">
+      <c r="C8" s="554" t="s">
         <v>725</v>
       </c>
-      <c r="D8" s="550" t="s">
+      <c r="D8" s="554" t="s">
         <v>724</v>
       </c>
-      <c r="F8" s="550" t="s">
+      <c r="F8" s="554" t="s">
         <v>725</v>
       </c>
-      <c r="G8" s="550" t="s">
+      <c r="G8" s="554" t="s">
         <v>724</v>
       </c>
-      <c r="J8" s="568"/>
-      <c r="K8" s="570" t="s">
+      <c r="J8" s="580"/>
+      <c r="K8" s="582" t="s">
         <v>701</v>
       </c>
-      <c r="L8" s="571"/>
-      <c r="M8" s="572"/>
-      <c r="N8" s="570" t="s">
+      <c r="L8" s="583"/>
+      <c r="M8" s="584"/>
+      <c r="N8" s="582" t="s">
         <v>702</v>
       </c>
-      <c r="O8" s="571"/>
-      <c r="P8" s="572"/>
-      <c r="Q8" s="570" t="s">
+      <c r="O8" s="583"/>
+      <c r="P8" s="584"/>
+      <c r="Q8" s="582" t="s">
         <v>721</v>
       </c>
-      <c r="R8" s="571"/>
-      <c r="S8" s="572"/>
-      <c r="T8" s="570" t="s">
+      <c r="R8" s="583"/>
+      <c r="S8" s="584"/>
+      <c r="T8" s="582" t="s">
         <v>703</v>
       </c>
-      <c r="U8" s="571"/>
-      <c r="V8" s="572"/>
-      <c r="X8" s="563"/>
-      <c r="Y8" s="564" t="s">
+      <c r="U8" s="583"/>
+      <c r="V8" s="584"/>
+      <c r="X8" s="592"/>
+      <c r="Y8" s="593" t="s">
         <v>701</v>
       </c>
-      <c r="Z8" s="564"/>
-      <c r="AA8" s="564"/>
-      <c r="AB8" s="564" t="s">
+      <c r="Z8" s="593"/>
+      <c r="AA8" s="593"/>
+      <c r="AB8" s="593" t="s">
         <v>702</v>
       </c>
-      <c r="AC8" s="564"/>
-      <c r="AD8" s="564"/>
-      <c r="AE8" s="564" t="s">
+      <c r="AC8" s="593"/>
+      <c r="AD8" s="593"/>
+      <c r="AE8" s="593" t="s">
         <v>721</v>
       </c>
-      <c r="AF8" s="564"/>
-      <c r="AG8" s="564"/>
-      <c r="AH8" s="564" t="s">
+      <c r="AF8" s="593"/>
+      <c r="AG8" s="593"/>
+      <c r="AH8" s="593" t="s">
         <v>703</v>
       </c>
-      <c r="AI8" s="564"/>
-      <c r="AJ8" s="564"/>
+      <c r="AI8" s="593"/>
+      <c r="AJ8" s="593"/>
     </row>
     <row r="9" spans="1:36" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="270"/>
       <c r="B9" s="270"/>
-      <c r="C9" s="576"/>
-      <c r="D9" s="576"/>
-      <c r="F9" s="576"/>
-      <c r="G9" s="576"/>
-      <c r="J9" s="569"/>
+      <c r="C9" s="588"/>
+      <c r="D9" s="588"/>
+      <c r="F9" s="588"/>
+      <c r="G9" s="588"/>
+      <c r="J9" s="581"/>
       <c r="K9" s="299" t="s">
         <v>763</v>
       </c>
@@ -18495,7 +18521,7 @@
       <c r="V9" s="300" t="s">
         <v>765</v>
       </c>
-      <c r="X9" s="563"/>
+      <c r="X9" s="592"/>
       <c r="Y9" s="299" t="s">
         <v>763</v>
       </c>
@@ -18534,7 +18560,7 @@
       </c>
     </row>
     <row r="10" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="565" t="s">
+      <c r="A10" s="577" t="s">
         <v>693</v>
       </c>
       <c r="B10" s="253" t="s">
@@ -18647,7 +18673,7 @@
       </c>
     </row>
     <row r="11" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="566"/>
+      <c r="A11" s="578"/>
       <c r="B11" s="254" t="s">
         <v>722</v>
       </c>
@@ -18758,23 +18784,23 @@
       </c>
     </row>
     <row r="12" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="565" t="s">
+      <c r="A12" s="577" t="s">
         <v>696</v>
       </c>
       <c r="B12" s="233" t="s">
         <v>721</v>
       </c>
-      <c r="C12" s="574">
+      <c r="C12" s="586">
         <v>179</v>
       </c>
-      <c r="D12" s="574">
+      <c r="D12" s="586">
         <v>75</v>
       </c>
-      <c r="F12" s="560">
+      <c r="F12" s="589">
         <f t="shared" si="0"/>
         <v>188.23122194513715</v>
       </c>
-      <c r="G12" s="560">
+      <c r="G12" s="589">
         <f t="shared" si="0"/>
         <v>78.867830423940148</v>
       </c>
@@ -18871,14 +18897,14 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="573"/>
+      <c r="A13" s="585"/>
       <c r="B13" s="253" t="s">
         <v>723</v>
       </c>
-      <c r="C13" s="575"/>
-      <c r="D13" s="575"/>
-      <c r="F13" s="561"/>
-      <c r="G13" s="561">
+      <c r="C13" s="587"/>
+      <c r="D13" s="587"/>
+      <c r="F13" s="590"/>
+      <c r="G13" s="590">
         <f>D13*factor16</f>
         <v>0</v>
       </c>
@@ -18975,7 +19001,7 @@
       </c>
     </row>
     <row r="14" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="566"/>
+      <c r="A14" s="578"/>
       <c r="B14" s="254" t="s">
         <v>698</v>
       </c>
@@ -19465,14 +19491,14 @@
     </row>
     <row r="19" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71"/>
-      <c r="B19" s="577" t="s">
+      <c r="B19" s="564" t="s">
         <v>692</v>
       </c>
-      <c r="C19" s="578"/>
-      <c r="F19" s="577" t="s">
+      <c r="C19" s="565"/>
+      <c r="F19" s="564" t="s">
         <v>692</v>
       </c>
-      <c r="G19" s="578"/>
+      <c r="G19" s="565"/>
       <c r="J19" s="304" t="s">
         <v>707</v>
       </c>
@@ -19566,7 +19592,7 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="565" t="s">
+      <c r="A20" s="577" t="s">
         <v>693</v>
       </c>
       <c r="B20" s="253" t="s">
@@ -19673,7 +19699,7 @@
       </c>
     </row>
     <row r="21" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="566"/>
+      <c r="A21" s="578"/>
       <c r="B21" s="254" t="s">
         <v>695</v>
       </c>
@@ -20074,31 +20100,31 @@
       <c r="J28" s="195" t="s">
         <v>680</v>
       </c>
-      <c r="X28" s="584" t="s">
+      <c r="X28" s="571" t="s">
         <v>762</v>
       </c>
-      <c r="Y28" s="584"/>
+      <c r="Y28" s="571"/>
     </row>
     <row r="29" spans="1:36" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="579" t="s">
+      <c r="J29" s="566" t="s">
         <v>699</v>
       </c>
-      <c r="K29" s="581" t="s">
+      <c r="K29" s="568" t="s">
         <v>766</v>
       </c>
-      <c r="L29" s="582"/>
-      <c r="M29" s="583"/>
-      <c r="X29" s="585" t="s">
+      <c r="L29" s="569"/>
+      <c r="M29" s="570"/>
+      <c r="X29" s="572" t="s">
         <v>699</v>
       </c>
-      <c r="Y29" s="587" t="s">
+      <c r="Y29" s="574" t="s">
         <v>700</v>
       </c>
-      <c r="Z29" s="588"/>
-      <c r="AA29" s="589"/>
+      <c r="Z29" s="575"/>
+      <c r="AA29" s="576"/>
     </row>
     <row r="30" spans="1:36" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J30" s="580"/>
+      <c r="J30" s="567"/>
       <c r="K30" s="314" t="s">
         <v>701</v>
       </c>
@@ -20108,7 +20134,7 @@
       <c r="M30" s="316" t="s">
         <v>767</v>
       </c>
-      <c r="X30" s="586"/>
+      <c r="X30" s="573"/>
       <c r="Y30" s="257" t="s">
         <v>701</v>
       </c>
@@ -20557,13 +20583,14 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="X28:Y28"/>
-    <mergeCell ref="X29:X30"/>
-    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="AF6:AG6"/>
+    <mergeCell ref="X7:X9"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y7:AJ7"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K8:M8"/>
@@ -20580,14 +20607,13 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="AF6:AG6"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y7:AJ7"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="X28:Y28"/>
+    <mergeCell ref="X29:X30"/>
+    <mergeCell ref="Y29:AA29"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21027,15 +21053,15 @@
       <c r="A37" s="71" t="s">
         <v>681</v>
       </c>
-      <c r="B37" s="577" t="s">
+      <c r="B37" s="564" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="578"/>
+      <c r="C37" s="565"/>
       <c r="D37" s="472"/>
-      <c r="F37" s="590" t="s">
+      <c r="F37" s="594" t="s">
         <v>59</v>
       </c>
-      <c r="G37" s="590"/>
+      <c r="G37" s="594"/>
     </row>
     <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="96" t="s">
@@ -21061,16 +21087,16 @@
       <c r="A39" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="592">
+      <c r="B39" s="596">
         <v>32.799999999999997</v>
       </c>
-      <c r="C39" s="593"/>
+      <c r="C39" s="597"/>
       <c r="D39" s="472"/>
-      <c r="F39" s="591">
+      <c r="F39" s="595">
         <f>B39*factor02</f>
         <v>44.353206772703949</v>
       </c>
-      <c r="G39" s="591"/>
+      <c r="G39" s="595"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="96"/>
@@ -21643,12 +21669,12 @@
       <c r="M4"/>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="594" t="s">
+      <c r="A5" s="598" t="s">
         <v>834</v>
       </c>
-      <c r="B5" s="594"/>
-      <c r="C5" s="594"/>
-      <c r="D5" s="594"/>
+      <c r="B5" s="598"/>
+      <c r="C5" s="598"/>
+      <c r="D5" s="598"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" s="68" t="s">
@@ -22393,22 +22419,22 @@
       <c r="B17" s="423" t="s">
         <v>813</v>
       </c>
-      <c r="C17" s="595" t="s">
+      <c r="C17" s="615" t="s">
         <v>814</v>
       </c>
-      <c r="D17" s="596"/>
-      <c r="E17" s="596"/>
-      <c r="F17" s="597"/>
+      <c r="D17" s="616"/>
+      <c r="E17" s="616"/>
+      <c r="F17" s="617"/>
       <c r="H17" s="422"/>
       <c r="I17" s="423" t="s">
         <v>813</v>
       </c>
-      <c r="J17" s="595" t="s">
+      <c r="J17" s="615" t="s">
         <v>814</v>
       </c>
-      <c r="K17" s="596"/>
-      <c r="L17" s="596"/>
-      <c r="M17" s="597"/>
+      <c r="K17" s="616"/>
+      <c r="L17" s="616"/>
+      <c r="M17" s="617"/>
     </row>
     <row r="18" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="424"/>
@@ -22448,16 +22474,16 @@
       <c r="A19" s="428" t="s">
         <v>551</v>
       </c>
-      <c r="B19" s="602">
+      <c r="B19" s="618">
         <v>0.84</v>
       </c>
-      <c r="C19" s="602">
+      <c r="C19" s="618">
         <v>257</v>
       </c>
-      <c r="D19" s="602">
+      <c r="D19" s="618">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E19" s="602">
+      <c r="E19" s="618">
         <v>9.0399999999999991</v>
       </c>
       <c r="F19" s="429">
@@ -22466,19 +22492,19 @@
       <c r="H19" s="428" t="s">
         <v>551</v>
       </c>
-      <c r="I19" s="598">
+      <c r="I19" s="620">
         <f>B19*factor16</f>
         <v>0.8833197007481296</v>
       </c>
-      <c r="J19" s="600">
+      <c r="J19" s="622">
         <f>C19*factor16</f>
         <v>270.25376558603489</v>
       </c>
-      <c r="K19" s="598">
+      <c r="K19" s="620">
         <f>D19*factor16</f>
         <v>2.1557206982543637</v>
       </c>
-      <c r="L19" s="598">
+      <c r="L19" s="620">
         <f>E19*factor16</f>
         <v>9.5062024937655849</v>
       </c>
@@ -22491,20 +22517,20 @@
       <c r="A20" s="430" t="s">
         <v>552</v>
       </c>
-      <c r="B20" s="602"/>
-      <c r="C20" s="602"/>
-      <c r="D20" s="602"/>
-      <c r="E20" s="602"/>
+      <c r="B20" s="618"/>
+      <c r="C20" s="618"/>
+      <c r="D20" s="618"/>
+      <c r="E20" s="618"/>
       <c r="F20" s="431">
         <v>0.11</v>
       </c>
       <c r="H20" s="430" t="s">
         <v>552</v>
       </c>
-      <c r="I20" s="598"/>
-      <c r="J20" s="600"/>
-      <c r="K20" s="598"/>
-      <c r="L20" s="598"/>
+      <c r="I20" s="620"/>
+      <c r="J20" s="622"/>
+      <c r="K20" s="620"/>
+      <c r="L20" s="620"/>
       <c r="M20" s="434">
         <f>F20*factor16</f>
         <v>0.11567281795511222</v>
@@ -22514,20 +22540,20 @@
       <c r="A21" s="432" t="s">
         <v>820</v>
       </c>
-      <c r="B21" s="603"/>
-      <c r="C21" s="603"/>
-      <c r="D21" s="603"/>
-      <c r="E21" s="603"/>
+      <c r="B21" s="619"/>
+      <c r="C21" s="619"/>
+      <c r="D21" s="619"/>
+      <c r="E21" s="619"/>
       <c r="F21" s="433">
         <v>0.01</v>
       </c>
       <c r="H21" s="432" t="s">
         <v>820</v>
       </c>
-      <c r="I21" s="599"/>
-      <c r="J21" s="601"/>
-      <c r="K21" s="599"/>
-      <c r="L21" s="599"/>
+      <c r="I21" s="621"/>
+      <c r="J21" s="623"/>
+      <c r="K21" s="621"/>
+      <c r="L21" s="621"/>
       <c r="M21" s="434">
         <f>F21*factor16</f>
         <v>1.0515710723192019E-2</v>
@@ -22557,13 +22583,13 @@
       <c r="T27" s="349"/>
     </row>
     <row r="28" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="618" t="s">
+      <c r="A28" s="603" t="s">
         <v>691</v>
       </c>
-      <c r="B28" s="619"/>
-      <c r="C28" s="619"/>
-      <c r="D28" s="619"/>
-      <c r="E28" s="619"/>
+      <c r="B28" s="604"/>
+      <c r="C28" s="604"/>
+      <c r="D28" s="604"/>
+      <c r="E28" s="604"/>
       <c r="S28" s="348"/>
       <c r="T28" s="349"/>
     </row>
@@ -22581,60 +22607,60 @@
       <c r="B30" s="347"/>
       <c r="C30" s="347"/>
       <c r="D30" s="347"/>
-      <c r="L30" s="616" t="s">
+      <c r="L30" s="601" t="s">
         <v>762</v>
       </c>
-      <c r="M30" s="617"/>
+      <c r="M30" s="602"/>
       <c r="S30" s="348"/>
       <c r="T30" s="349"/>
     </row>
     <row r="31" spans="1:21" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="609" t="s">
+      <c r="A31" s="605" t="s">
         <v>690</v>
       </c>
-      <c r="B31" s="610"/>
-      <c r="C31" s="609" t="s">
+      <c r="B31" s="606"/>
+      <c r="C31" s="605" t="s">
         <v>839</v>
       </c>
-      <c r="D31" s="610" t="s">
+      <c r="D31" s="606" t="s">
         <v>866</v>
       </c>
-      <c r="E31" s="610" t="s">
+      <c r="E31" s="606" t="s">
         <v>841</v>
       </c>
-      <c r="F31" s="613" t="s">
+      <c r="F31" s="614" t="s">
         <v>840</v>
       </c>
-      <c r="G31" s="613" t="s">
+      <c r="G31" s="614" t="s">
         <v>867</v>
       </c>
-      <c r="H31" s="613" t="s">
+      <c r="H31" s="614" t="s">
         <v>842</v>
       </c>
-      <c r="J31" s="609" t="s">
+      <c r="J31" s="605" t="s">
         <v>690</v>
       </c>
-      <c r="K31" s="610"/>
-      <c r="L31" s="615" t="s">
+      <c r="K31" s="606"/>
+      <c r="L31" s="599" t="s">
         <v>769</v>
       </c>
-      <c r="M31" s="615" t="s">
+      <c r="M31" s="599" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="40.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="611"/>
-      <c r="B32" s="612"/>
-      <c r="C32" s="611"/>
-      <c r="D32" s="612"/>
-      <c r="E32" s="612"/>
-      <c r="F32" s="614"/>
-      <c r="G32" s="614"/>
-      <c r="H32" s="614"/>
-      <c r="J32" s="611"/>
-      <c r="K32" s="612"/>
-      <c r="L32" s="614"/>
-      <c r="M32" s="614"/>
+      <c r="A32" s="607"/>
+      <c r="B32" s="608"/>
+      <c r="C32" s="607"/>
+      <c r="D32" s="608"/>
+      <c r="E32" s="608"/>
+      <c r="F32" s="600"/>
+      <c r="G32" s="600"/>
+      <c r="H32" s="600"/>
+      <c r="J32" s="607"/>
+      <c r="K32" s="608"/>
+      <c r="L32" s="600"/>
+      <c r="M32" s="600"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="453">
@@ -23869,16 +23895,16 @@
       <c r="X76" s="320"/>
     </row>
     <row r="77" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="604" t="s">
+      <c r="A77" s="609" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="606" t="s">
+      <c r="B77" s="611" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="607"/>
-      <c r="D77" s="607"/>
-      <c r="E77" s="607"/>
-      <c r="F77" s="608"/>
+      <c r="C77" s="612"/>
+      <c r="D77" s="612"/>
+      <c r="E77" s="612"/>
+      <c r="F77" s="613"/>
       <c r="I77" s="320"/>
       <c r="J77" s="320"/>
       <c r="K77" s="320"/>
@@ -23897,7 +23923,7 @@
       <c r="X77" s="320"/>
     </row>
     <row r="78" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="605"/>
+      <c r="A78" s="610"/>
       <c r="B78" s="322" t="s">
         <v>180</v>
       </c>
@@ -24161,7 +24187,7 @@
       <c r="W82" s="320"/>
       <c r="X82" s="320"/>
     </row>
-    <row r="83" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="325" t="s">
         <v>185</v>
       </c>
@@ -24414,16 +24440,16 @@
       <c r="X89" s="320"/>
     </row>
     <row r="90" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="604" t="s">
+      <c r="A90" s="609" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="606" t="s">
+      <c r="B90" s="611" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="607"/>
-      <c r="D90" s="607"/>
-      <c r="E90" s="607"/>
-      <c r="F90" s="608"/>
+      <c r="C90" s="612"/>
+      <c r="D90" s="612"/>
+      <c r="E90" s="612"/>
+      <c r="F90" s="613"/>
       <c r="I90" s="320"/>
       <c r="J90" s="320"/>
       <c r="K90" s="320"/>
@@ -24442,7 +24468,7 @@
       <c r="X90" s="320"/>
     </row>
     <row r="91" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="605"/>
+      <c r="A91" s="610"/>
       <c r="B91" s="322" t="s">
         <v>180</v>
       </c>
@@ -24952,12 +24978,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="B77:F77"/>
     <mergeCell ref="A90:A91"/>
@@ -24968,16 +24998,12 @@
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:C32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C75" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -25039,48 +25065,48 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="550" t="s">
+      <c r="A8" s="554" t="s">
         <v>549</v>
       </c>
-      <c r="B8" s="550" t="s">
+      <c r="B8" s="554" t="s">
         <v>550</v>
       </c>
-      <c r="C8" s="550" t="s">
+      <c r="C8" s="554" t="s">
         <v>786</v>
       </c>
-      <c r="D8" s="550" t="s">
+      <c r="D8" s="554" t="s">
         <v>787</v>
       </c>
-      <c r="E8" s="550" t="s">
+      <c r="E8" s="554" t="s">
         <v>794</v>
       </c>
-      <c r="J8" s="550" t="s">
+      <c r="J8" s="554" t="s">
         <v>549</v>
       </c>
-      <c r="K8" s="550" t="s">
+      <c r="K8" s="554" t="s">
         <v>550</v>
       </c>
-      <c r="L8" s="550" t="s">
+      <c r="L8" s="554" t="s">
         <v>786</v>
       </c>
-      <c r="M8" s="550" t="s">
+      <c r="M8" s="554" t="s">
         <v>787</v>
       </c>
-      <c r="N8" s="550" t="s">
+      <c r="N8" s="554" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="576"/>
-      <c r="B9" s="576"/>
-      <c r="C9" s="576"/>
-      <c r="D9" s="576"/>
-      <c r="E9" s="576"/>
-      <c r="J9" s="576"/>
-      <c r="K9" s="576"/>
-      <c r="L9" s="576"/>
-      <c r="M9" s="576"/>
-      <c r="N9" s="576"/>
+      <c r="A9" s="588"/>
+      <c r="B9" s="588"/>
+      <c r="C9" s="588"/>
+      <c r="D9" s="588"/>
+      <c r="E9" s="588"/>
+      <c r="J9" s="588"/>
+      <c r="K9" s="588"/>
+      <c r="L9" s="588"/>
+      <c r="M9" s="588"/>
+      <c r="N9" s="588"/>
     </row>
     <row r="10" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="368" t="s">
@@ -25188,10 +25214,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="620" t="s">
+      <c r="A13" s="628" t="s">
         <v>773</v>
       </c>
-      <c r="B13" s="621"/>
+      <c r="B13" s="629"/>
       <c r="C13" s="262">
         <v>1010</v>
       </c>
@@ -25201,10 +25227,10 @@
       <c r="E13" s="370">
         <v>246</v>
       </c>
-      <c r="J13" s="620" t="s">
+      <c r="J13" s="628" t="s">
         <v>773</v>
       </c>
-      <c r="K13" s="621"/>
+      <c r="K13" s="629"/>
       <c r="L13" s="262">
         <f t="shared" si="0"/>
         <v>1062.086783042394</v>
@@ -25889,56 +25915,56 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="40.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="624" t="s">
+      <c r="C46" s="626" t="s">
         <v>822</v>
       </c>
-      <c r="D46" s="624" t="s">
+      <c r="D46" s="626" t="s">
         <v>823</v>
       </c>
-      <c r="E46" s="622" t="s">
+      <c r="E46" s="624" t="s">
         <v>824</v>
       </c>
-      <c r="F46" s="623"/>
-      <c r="J46" s="624" t="s">
+      <c r="F46" s="625"/>
+      <c r="J46" s="626" t="s">
         <v>822</v>
       </c>
-      <c r="K46" s="624" t="s">
+      <c r="K46" s="626" t="s">
         <v>823</v>
       </c>
-      <c r="L46" s="622" t="s">
+      <c r="L46" s="624" t="s">
         <v>824</v>
       </c>
-      <c r="M46" s="623"/>
-      <c r="O46" s="624" t="s">
+      <c r="M46" s="625"/>
+      <c r="O46" s="626" t="s">
         <v>822</v>
       </c>
-      <c r="P46" s="624" t="s">
+      <c r="P46" s="626" t="s">
         <v>823</v>
       </c>
-      <c r="Q46" s="622" t="s">
+      <c r="Q46" s="624" t="s">
         <v>824</v>
       </c>
-      <c r="R46" s="623"/>
+      <c r="R46" s="625"/>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="625"/>
-      <c r="D47" s="625"/>
+      <c r="C47" s="627"/>
+      <c r="D47" s="627"/>
       <c r="E47" s="435" t="s">
         <v>825</v>
       </c>
       <c r="F47" s="436" t="s">
         <v>826</v>
       </c>
-      <c r="J47" s="625"/>
-      <c r="K47" s="625"/>
+      <c r="J47" s="627"/>
+      <c r="K47" s="627"/>
       <c r="L47" s="435" t="s">
         <v>825</v>
       </c>
       <c r="M47" s="436" t="s">
         <v>826</v>
       </c>
-      <c r="O47" s="625"/>
-      <c r="P47" s="625"/>
+      <c r="O47" s="627"/>
+      <c r="P47" s="627"/>
       <c r="Q47" s="435" t="s">
         <v>825</v>
       </c>
@@ -26049,38 +26075,38 @@
       </c>
     </row>
     <row r="53" spans="3:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="624" t="s">
+      <c r="C53" s="626" t="s">
         <v>822</v>
       </c>
-      <c r="D53" s="624" t="s">
+      <c r="D53" s="626" t="s">
         <v>823</v>
       </c>
-      <c r="E53" s="622" t="s">
+      <c r="E53" s="624" t="s">
         <v>824</v>
       </c>
-      <c r="F53" s="623"/>
-      <c r="J53" s="624" t="s">
+      <c r="F53" s="625"/>
+      <c r="J53" s="626" t="s">
         <v>822</v>
       </c>
-      <c r="K53" s="624" t="s">
+      <c r="K53" s="626" t="s">
         <v>823</v>
       </c>
-      <c r="L53" s="622" t="s">
+      <c r="L53" s="624" t="s">
         <v>824</v>
       </c>
-      <c r="M53" s="623"/>
+      <c r="M53" s="625"/>
     </row>
     <row r="54" spans="3:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="625"/>
-      <c r="D54" s="625"/>
+      <c r="C54" s="627"/>
+      <c r="D54" s="627"/>
       <c r="E54" s="435" t="s">
         <v>825</v>
       </c>
       <c r="F54" s="436" t="s">
         <v>826</v>
       </c>
-      <c r="J54" s="625"/>
-      <c r="K54" s="625"/>
+      <c r="J54" s="627"/>
+      <c r="K54" s="627"/>
       <c r="L54" s="435" t="s">
         <v>825</v>
       </c>
@@ -26154,6 +26180,18 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="O46:O47"/>
     <mergeCell ref="P46:P47"/>
@@ -26169,18 +26207,6 @@
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="J46:J47"/>
     <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://ec.europa.eu/transport/sites/transport/files/studies/internalisation-handbook-isbn-978-92-79-96917-1.pdf" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
@@ -26321,18 +26347,18 @@
       <c r="B7" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="C7" s="626" t="s">
+      <c r="C7" s="630" t="s">
         <v>263</v>
       </c>
-      <c r="D7" s="627"/>
-      <c r="F7" s="626" t="s">
+      <c r="D7" s="631"/>
+      <c r="F7" s="630" t="s">
         <v>263</v>
       </c>
-      <c r="G7" s="627"/>
-      <c r="I7" s="626" t="s">
+      <c r="G7" s="631"/>
+      <c r="I7" s="630" t="s">
         <v>263</v>
       </c>
-      <c r="J7" s="627"/>
+      <c r="J7" s="631"/>
     </row>
     <row r="10" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B10" s="190" t="s">
@@ -26361,4 +26387,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{fd60f3b8-f236-4830-aecc-da0a7fc54679}" enabled="1" method="Standard" siteId="{76f33c20-5979-4408-adf7-8b3c4be95e52}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>